--- a/OperationalExcellence/Templates/module 1/Module-1-Discovery.xlsx
+++ b/OperationalExcellence/Templates/module 1/Module-1-Discovery.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simtuitive-Core\products\OperationalExcellence\Templates\module 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codebase-simtuitive-core-dev\product-templates\OperationalExcellence\Templates\module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757CCC6-4BDA-4D3E-A2F4-A51DB7829B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E34EC-608C-48BA-9B34-A43F02B700D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CB4F19B-C9F1-4F26-B1F4-4784C1ABDEB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OEModule1Question" sheetId="1" r:id="rId1"/>
+    <sheet name="LearnerUserDataTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -72,15 +73,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>How many process desks are a part of your Scope</t>
-  </si>
-  <si>
-    <t>What is the max time limit for service per passport as per the Statement of work? Enter answer in minutes.</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
     <t>What is the Price the Government is willing to pay per passport if ATLAS Corp achieves 4 Sigma level of performance?</t>
   </si>
   <si>
@@ -91,13 +83,70 @@
   </si>
   <si>
     <t>What is the Bonus reward per passport from the Government if ATLAS Corp can meet all criteria?</t>
+  </si>
+  <si>
+    <t>How many process desks are a part of your Scope ?</t>
+  </si>
+  <si>
+    <t>No Penalty</t>
+  </si>
+  <si>
+    <t>Which among the service levels mentioned does not attract Service penalty ?</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>Attempt</t>
+  </si>
+  <si>
+    <t>UserEmail</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>OEModuleDiscoverLearnerUserData</t>
+  </si>
+  <si>
+    <t>UI-1</t>
+  </si>
+  <si>
+    <t>UI-2</t>
+  </si>
+  <si>
+    <t>UI-3</t>
+  </si>
+  <si>
+    <t>UI-4</t>
+  </si>
+  <si>
+    <t>Discover Score</t>
+  </si>
+  <si>
+    <t>UI-5</t>
+  </si>
+  <si>
+    <t>UI-6</t>
+  </si>
+  <si>
+    <t>UI-7</t>
+  </si>
+  <si>
+    <t>UI-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +157,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -147,12 +202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E761E6-F95A-4BF3-81F7-E1827973A4E2}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,16 +577,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>25</v>
@@ -553,13 +609,13 @@
         <v>5</v>
       </c>
       <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -573,22 +629,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -597,30 +653,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>60</v>
+        <v>95.01</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>95.01</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -631,16 +687,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -660,22 +716,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -689,22 +745,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
       </c>
       <c r="E8">
         <v>2000</v>
       </c>
       <c r="F8">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="G8">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="H8">
         <v>2000</v>
@@ -718,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -727,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -746,4 +802,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DC14C1-07BC-4790-BE9A-BE48957FE188}">
+  <dimension ref="A3:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>